--- a/data/SF_S3.xlsx
+++ b/data/SF_S3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitBit\estadistica-in1119\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitHub\estadistica-in1119\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -79,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,12 +105,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +399,15 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -403,7 +419,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -415,7 +431,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -424,7 +440,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -438,7 +454,7 @@
       <c r="C2" s="1">
         <v>183.8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>185.1</v>
       </c>
       <c r="E2" s="1">
@@ -450,7 +466,7 @@
       <c r="G2" s="1">
         <v>189.586789294417</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <v>196.52123563959401</v>
       </c>
       <c r="I2" s="1">
@@ -459,7 +475,7 @@
       <c r="J2" s="1">
         <v>220.1</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>226.44321962436501</v>
       </c>
     </row>
@@ -473,7 +489,7 @@
       <c r="C3" s="1">
         <v>182.3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>181.15386137563399</v>
       </c>
       <c r="E3" s="1">
@@ -485,7 +501,7 @@
       <c r="G3" s="1">
         <v>186.850181017766</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <v>195.74922594923899</v>
       </c>
       <c r="I3" s="1">
@@ -494,7 +510,7 @@
       <c r="J3" s="1">
         <v>212.75466618781701</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>227.69455858629601</v>
       </c>
     </row>
@@ -508,7 +524,7 @@
       <c r="C4" s="1">
         <v>181.47290115403899</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>172.37373117005001</v>
       </c>
       <c r="E4" s="1">
@@ -520,7 +536,7 @@
       <c r="G4" s="1">
         <v>190.76677472588801</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <v>193.62472510406101</v>
       </c>
       <c r="I4" s="1">
@@ -529,7 +545,7 @@
       <c r="J4" s="1">
         <v>218.50493658883099</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>228.876586847716</v>
       </c>
     </row>
@@ -543,7 +559,7 @@
       <c r="C5" s="1">
         <v>182.19295325252401</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>181.132327639593</v>
       </c>
       <c r="E5" s="1">
@@ -555,7 +571,7 @@
       <c r="G5" s="1">
         <v>191.34455320050799</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <v>196.51651799999999</v>
       </c>
       <c r="I5" s="1">
@@ -564,7 +580,7 @@
       <c r="J5" s="1">
         <v>226.02803578426199</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>231.36974864467001</v>
       </c>
     </row>
@@ -578,7 +594,7 @@
       <c r="C6" s="1">
         <v>179.786497705583</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>180.76600475634399</v>
       </c>
       <c r="E6" s="1">
@@ -590,7 +606,7 @@
       <c r="G6" s="1">
         <v>191.27058917512599</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>195.833992649745</v>
       </c>
       <c r="I6" s="1">
@@ -599,7 +615,7 @@
       <c r="J6" s="1">
         <v>219.20533048730999</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>227.52643051515</v>
       </c>
     </row>
@@ -613,7 +629,7 @@
       <c r="C7" s="1">
         <v>186.85392871827401</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>178.44582118527799</v>
       </c>
       <c r="E7" s="1">
@@ -625,7 +641,7 @@
       <c r="G7" s="1">
         <v>190.95262114213099</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>191.854276137055</v>
       </c>
       <c r="I7" s="1">
@@ -634,7 +650,7 @@
       <c r="J7" s="1">
         <v>221.24598672588701</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>230.78195517766699</v>
       </c>
     </row>
@@ -648,7 +664,7 @@
       <c r="C8" s="1">
         <v>182.284737837563</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>180.906694037878</v>
       </c>
       <c r="E8" s="1">
@@ -660,7 +676,7 @@
       <c r="G8" s="1">
         <v>191.055654015149</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>196.38107861421301</v>
       </c>
       <c r="I8" s="1">
@@ -669,7 +685,7 @@
       <c r="J8" s="1">
         <v>224.70304012944101</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>231.67632390355001</v>
       </c>
     </row>
@@ -683,7 +699,7 @@
       <c r="C9" s="1">
         <v>178.69211299494799</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>179.314906482233</v>
       </c>
       <c r="E9" s="1">
@@ -695,7 +711,7 @@
       <c r="G9" s="1">
         <v>190.752522436547</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
         <v>197.46054665736099</v>
       </c>
       <c r="I9" s="1">
@@ -704,7 +720,7 @@
       <c r="J9" s="1">
         <v>226.9</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>226.57017009136899</v>
       </c>
     </row>
@@ -718,7 +734,7 @@
       <c r="C10" s="1">
         <v>185.78704751269001</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>182.43537417258901</v>
       </c>
       <c r="E10" s="1">
@@ -730,7 +746,7 @@
       <c r="G10" s="1">
         <v>195.67257352030401</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <v>195.680540583756</v>
       </c>
       <c r="I10" s="1">
@@ -739,7 +755,7 @@
       <c r="J10" s="1">
         <v>218.1</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>232.06352968527801</v>
       </c>
     </row>
@@ -753,7 +769,7 @@
       <c r="C11" s="1">
         <v>181.24943626903499</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>181.2</v>
       </c>
       <c r="E11" s="1">
@@ -765,7 +781,7 @@
       <c r="G11" s="1">
         <v>185.628842411167</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>193.6</v>
       </c>
       <c r="I11" s="1">
@@ -774,7 +790,7 @@
       <c r="J11" s="1">
         <v>218</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>234.24814086801999</v>
       </c>
     </row>
@@ -788,7 +804,7 @@
       <c r="C12" s="1">
         <v>183.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>180.5</v>
       </c>
       <c r="E12" s="1">
@@ -800,7 +816,7 @@
       <c r="G12" s="1">
         <v>190.8</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>192.6</v>
       </c>
       <c r="I12" s="1">
@@ -809,7 +825,7 @@
       <c r="J12" s="1">
         <v>226.3</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>226.6</v>
       </c>
     </row>
@@ -823,7 +839,7 @@
       <c r="C13" s="1">
         <v>180.4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>185.6</v>
       </c>
       <c r="E13" s="1">
@@ -835,7 +851,7 @@
       <c r="G13" s="1">
         <v>190.1</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="4">
         <v>198.1</v>
       </c>
       <c r="I13" s="1">
@@ -844,7 +860,7 @@
       <c r="J13" s="1">
         <v>213.3</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>226.9</v>
       </c>
     </row>
@@ -858,7 +874,7 @@
       <c r="C14" s="1">
         <v>181</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>177.5</v>
       </c>
       <c r="E14" s="1">
@@ -870,7 +886,7 @@
       <c r="G14" s="1">
         <v>184.5</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="4">
         <v>197.4</v>
       </c>
       <c r="I14" s="1">
@@ -879,7 +895,7 @@
       <c r="J14" s="1">
         <v>218.6</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>229.8</v>
       </c>
     </row>
@@ -893,7 +909,7 @@
       <c r="C15" s="1">
         <v>183.8</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>181.7</v>
       </c>
       <c r="E15" s="1">
@@ -905,7 +921,7 @@
       <c r="G15" s="1">
         <v>192.9</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="4">
         <v>195.1</v>
       </c>
       <c r="I15" s="1">
@@ -914,7 +930,7 @@
       <c r="J15" s="1">
         <v>209.2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>234.5</v>
       </c>
     </row>
@@ -928,7 +944,7 @@
       <c r="C16" s="1">
         <v>184.9</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>182.3</v>
       </c>
       <c r="E16" s="1">
@@ -940,7 +956,7 @@
       <c r="G16" s="1">
         <v>187.7</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="4">
         <v>193.6</v>
       </c>
       <c r="I16" s="1">
@@ -949,7 +965,7 @@
       <c r="J16" s="1">
         <v>218.8</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>226.5</v>
       </c>
     </row>
@@ -963,7 +979,7 @@
       <c r="C17" s="1">
         <v>183.8</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>182.8</v>
       </c>
       <c r="E17" s="1">
@@ -975,7 +991,7 @@
       <c r="G17" s="1">
         <v>188.3</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="4">
         <v>197.1</v>
       </c>
       <c r="I17" s="1">
@@ -984,7 +1000,7 @@
       <c r="J17" s="1">
         <v>219.1</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>230.1</v>
       </c>
     </row>
@@ -998,7 +1014,7 @@
       <c r="C18" s="1">
         <v>184.4</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>173.6</v>
       </c>
       <c r="E18" s="1">
@@ -1010,7 +1026,7 @@
       <c r="G18" s="1">
         <v>191.5</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="4">
         <v>195.3</v>
       </c>
       <c r="I18" s="1">
@@ -1019,7 +1035,7 @@
       <c r="J18" s="1">
         <v>224.9</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>231.5</v>
       </c>
     </row>
@@ -1033,7 +1049,7 @@
       <c r="C19" s="1">
         <v>178</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>181.1</v>
       </c>
       <c r="E19" s="1">
@@ -1045,7 +1061,7 @@
       <c r="G19" s="1">
         <v>191.3</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="4">
         <v>196.2</v>
       </c>
       <c r="I19" s="1">
@@ -1054,7 +1070,7 @@
       <c r="J19" s="1">
         <v>219.4</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>232</v>
       </c>
     </row>
@@ -1068,7 +1084,7 @@
       <c r="C20" s="1">
         <v>182.9</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>174.2</v>
       </c>
       <c r="E20" s="1">
@@ -1080,7 +1096,7 @@
       <c r="G20" s="1">
         <v>190.5</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
         <v>194.9</v>
       </c>
       <c r="I20" s="1">
@@ -1089,7 +1105,7 @@
       <c r="J20" s="1">
         <v>224.8</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>233.4</v>
       </c>
     </row>
@@ -1103,7 +1119,7 @@
       <c r="C21" s="1">
         <v>177.5</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>178.4</v>
       </c>
       <c r="E21" s="1">
@@ -1115,7 +1131,7 @@
       <c r="G21" s="1">
         <v>191</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="4">
         <v>193.9</v>
       </c>
       <c r="I21" s="1">
@@ -1124,7 +1140,7 @@
       <c r="J21" s="1">
         <v>227.9</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>234.3</v>
       </c>
     </row>
@@ -1138,7 +1154,7 @@
       <c r="C22" s="1">
         <v>184.8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>180</v>
       </c>
       <c r="E22" s="1">
@@ -1150,7 +1166,7 @@
       <c r="G22" s="1">
         <v>189.9</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="4">
         <v>198.2</v>
       </c>
       <c r="I22" s="1">
@@ -1159,7 +1175,7 @@
       <c r="J22" s="1">
         <v>223.9</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>227.1</v>
       </c>
     </row>
@@ -1173,7 +1189,7 @@
       <c r="C23" s="1">
         <v>186.2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>181</v>
       </c>
       <c r="E23" s="1">
@@ -1185,7 +1201,7 @@
       <c r="G23" s="1">
         <v>192.5</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="4">
         <v>197.3</v>
       </c>
       <c r="I23" s="1">
@@ -1194,7 +1210,7 @@
       <c r="J23" s="1">
         <v>219.4</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>229.2</v>
       </c>
     </row>
@@ -1208,7 +1224,7 @@
       <c r="C24" s="1">
         <v>189.6</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>185.4</v>
       </c>
       <c r="E24" s="1">
@@ -1220,7 +1236,7 @@
       <c r="G24" s="1">
         <v>193.4</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="4">
         <v>193.5</v>
       </c>
       <c r="I24" s="1">
@@ -1229,7 +1245,7 @@
       <c r="J24" s="1">
         <v>234.7</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>228.7</v>
       </c>
     </row>
@@ -1243,7 +1259,7 @@
       <c r="C25" s="1">
         <v>185.5</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>183.8</v>
       </c>
       <c r="E25" s="1">
@@ -1255,7 +1271,7 @@
       <c r="G25" s="1">
         <v>189.8</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="4">
         <v>196.2</v>
       </c>
       <c r="I25" s="1">
@@ -1264,7 +1280,7 @@
       <c r="J25" s="1">
         <v>219.4</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>226.2</v>
       </c>
     </row>
@@ -1278,7 +1294,7 @@
       <c r="C26" s="1">
         <v>187.4</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>179.9</v>
       </c>
       <c r="E26" s="1">
@@ -1290,7 +1306,7 @@
       <c r="G26" s="1">
         <v>187.9</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="4">
         <v>193.4</v>
       </c>
       <c r="I26" s="1">
@@ -1299,7 +1315,7 @@
       <c r="J26" s="1">
         <v>215.6</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>227.9</v>
       </c>
     </row>
@@ -1313,7 +1329,7 @@
       <c r="C27" s="1">
         <v>181.5</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>179.9</v>
       </c>
       <c r="E27" s="1">
@@ -1325,7 +1341,7 @@
       <c r="G27" s="1">
         <v>193.1</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="4">
         <v>194.6</v>
       </c>
       <c r="I27" s="1">
@@ -1334,7 +1350,7 @@
       <c r="J27" s="1">
         <v>209</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>233.5</v>
       </c>
     </row>
@@ -1348,7 +1364,7 @@
       <c r="C28" s="1">
         <v>186.1</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>179.3</v>
       </c>
       <c r="E28" s="1">
@@ -1360,7 +1376,7 @@
       <c r="G28" s="1">
         <v>186.1</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="4">
         <v>197.1</v>
       </c>
       <c r="I28" s="1">
@@ -1369,7 +1385,7 @@
       <c r="J28" s="1">
         <v>224.7</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>228.6</v>
       </c>
     </row>
@@ -1383,7 +1399,7 @@
       <c r="C29" s="1">
         <v>186.3</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>182.1</v>
       </c>
       <c r="E29" s="1">
@@ -1395,7 +1411,7 @@
       <c r="G29" s="1">
         <v>193.3</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="4">
         <v>196</v>
       </c>
       <c r="I29" s="1">
@@ -1404,7 +1420,7 @@
       <c r="J29" s="1">
         <v>226.1</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>228.6</v>
       </c>
     </row>
@@ -1418,7 +1434,7 @@
       <c r="C30" s="1">
         <v>184.8</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>176.7</v>
       </c>
       <c r="E30" s="1">
@@ -1430,7 +1446,7 @@
       <c r="G30" s="1">
         <v>184.6</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="4">
         <v>196.3</v>
       </c>
       <c r="I30" s="1">
@@ -1439,7 +1455,7 @@
       <c r="J30" s="1">
         <v>224.2</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>231.9</v>
       </c>
     </row>
@@ -1453,7 +1469,7 @@
       <c r="C31" s="1">
         <v>182.3</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>185</v>
       </c>
       <c r="E31" s="1">
@@ -1465,7 +1481,7 @@
       <c r="G31" s="1">
         <v>188.3</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="4">
         <v>197.3</v>
       </c>
       <c r="I31" s="1">
@@ -1474,7 +1490,7 @@
       <c r="J31" s="1">
         <v>218.2</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>227.5</v>
       </c>
     </row>
